--- a/xlsx/鐵路運輸_intext.xlsx
+++ b/xlsx/鐵路運輸_intext.xlsx
@@ -29,7 +29,7 @@
     <t>巴基斯坦</t>
   </si>
   <si>
-    <t>政策_政策_美國_鐵路運輸</t>
+    <t>体育运动_体育运动_技术_鐵路運輸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B7%AF%E8%BB%8C%E9%81%93</t>
